--- a/biology/Médecine/Santé_dans_le_Bas-Saint-Laurent/Santé_dans_le_Bas-Saint-Laurent.xlsx
+++ b/biology/Médecine/Santé_dans_le_Bas-Saint-Laurent/Santé_dans_le_Bas-Saint-Laurent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_dans_le_Bas-Saint-Laurent</t>
+          <t>Santé_dans_le_Bas-Saint-Laurent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article concerne la santé dans le Bas-Saint-Laurent, une région administrative du Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_dans_le_Bas-Saint-Laurent</t>
+          <t>Santé_dans_le_Bas-Saint-Laurent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hôpitaux
-Le Bas-Saint-Laurent compte 8 hôpitaux, chacun situé dans l'une des 8 municipalités régionales de comté de son territoire.
+          <t>Hôpitaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le Bas-Saint-Laurent compte 8 hôpitaux, chacun situé dans l'une des 8 municipalités régionales de comté de son territoire.
 La Mitis : Centre hospitalier de La Mitis
 La Matapédia : Hôpital d'Amqui
 La Matanie : Hôpital de Matane
@@ -522,9 +539,43 @@
 Kamouraska : Hôpital Notre-Dame-de-Fatima
 Témiscouata : Hôpital de Notre-Dame-du-Lac
 Rimouski-Neigette : Hôpital régional de Rimouski
-Rivière-du-Loup : Centre hospitalier régional du Grand-Portage
-CLSC
-On retrouve des centres locaux de services communautaires (CLSC) dans les localités suivantes :
+Rivière-du-Loup : Centre hospitalier régional du Grand-Portage</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Santé_dans_le_Bas-Saint-Laurent</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_dans_le_Bas-Saint-Laurent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CLSC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve des centres locaux de services communautaires (CLSC) dans les localités suivantes :
 Amqui
 Baie-des-Sables
 Cabano
@@ -557,39 +608,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sant%C3%A9_dans_le_Bas-Saint-Laurent</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_dans_le_Bas-Saint-Laurent</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_dans_le_Bas-Saint-Laurent</t>
+          <t>Santé_dans_le_Bas-Saint-Laurent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,19 +629,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Santé_dans_le_Bas-Saint-Laurent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_dans_le_Bas-Saint-Laurent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Organisation
-La région est desservie par le Centre intégré de santé et de services sociaux du Bas-Saint-Laurent.
-Présidence-direction générale
-Depuis le 1er avril 2015 : Isabelle Malo[1]
-Direction de santé publique
-Le directeur de la santé publique du Bas-Saint-Laurent a le rôle d'informer la population sur différentes situations concernant l'état de santé (mode de vie sain, inégalités sociales de santé, etc) et d'instaurer des consignes pour protéger la santé publique (épidémie, grippe).
-1993 - 2013 : Robert Maguire[2]
-Depuis 2013 : Sylvain Leduc[3]</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région est desservie par le Centre intégré de santé et de services sociaux du Bas-Saint-Laurent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Santé_dans_le_Bas-Saint-Laurent</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_dans_le_Bas-Saint-Laurent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Présidence-direction générale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Depuis le 1er avril 2015 : Isabelle Malo</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Santé_dans_le_Bas-Saint-Laurent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_dans_le_Bas-Saint-Laurent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Direction de santé publique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le directeur de la santé publique du Bas-Saint-Laurent a le rôle d'informer la population sur différentes situations concernant l'état de santé (mode de vie sain, inégalités sociales de santé, etc) et d'instaurer des consignes pour protéger la santé publique (épidémie, grippe).
+1993 - 2013 : Robert Maguire
+Depuis 2013 : Sylvain Leduc</t>
         </is>
       </c>
     </row>
